--- a/medicine/Œil et vue/Bimatoprost/Bimatoprost.xlsx
+++ b/medicine/Œil et vue/Bimatoprost/Bimatoprost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bimatoprost est la substance active de médicaments utilisés pour traiter les hypertensions intraoculaires.
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bimatoprost entre dans la composition du Lumigan qui est un médicament utilisé pour traiter la haute pression à l'intérieur de l'œil, y compris le glaucome [1]. Plus précisément, il est utilisé pour le glaucome à angle ouvert lorsque les autres agents ne sont pas suffisants[1],[2]. Il peut également être utilisé pour augmenter la taille des cils [3]. Il est utilisé sous forme de gouttes oculaires et les effets se produisent généralement dans les quatre heures[1],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bimatoprost entre dans la composition du Lumigan qui est un médicament utilisé pour traiter la haute pression à l'intérieur de l'œil, y compris le glaucome . Plus précisément, il est utilisé pour le glaucome à angle ouvert lorsque les autres agents ne sont pas suffisants,. Il peut également être utilisé pour augmenter la taille des cils . Il est utilisé sous forme de gouttes oculaires et les effets se produisent généralement dans les quatre heures,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants sont les suivants : yeux rouges, sécheresse oculaire, changement de couleur des yeux, vision floue et cataracte [1],[4],[2]. L'utilisation pendant la grossesse ou l'allaitement n'est généralement pas recommandée[5],[4],[2]. C'est un analogue de la prostaglandine et agit en augmentant l'écoulement de liquide aqueux des yeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants sont les suivants : yeux rouges, sécheresse oculaire, changement de couleur des yeux, vision floue et cataracte . L'utilisation pendant la grossesse ou l'allaitement n'est généralement pas recommandée. C'est un analogue de la prostaglandine et agit en augmentant l'écoulement de liquide aqueux des yeux.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bimatoprost a été approuvé pour un usage médical aux États-Unis en 2001[1]. Il est disponible en tant que médicament générique [6],[3],[2]. Au Royaume-Uni, un flacon de 3 millilitres coûte au NHS environ 9,30 livres sterling en 2019[2]. Aux États-Unis, le coût de gros de cette quantité est d'environ 80 dollars[7]. En 2017, c'était le 231e médicament le plus couramment prescrit aux États-Unis, avec plus de deux millions d'ordonnances[8],[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bimatoprost a été approuvé pour un usage médical aux États-Unis en 2001. Il est disponible en tant que médicament générique . Au Royaume-Uni, un flacon de 3 millilitres coûte au NHS environ 9,30 livres sterling en 2019. Aux États-Unis, le coût de gros de cette quantité est d'environ 80 dollars. En 2017, c'était le 231e médicament le plus couramment prescrit aux États-Unis, avec plus de deux millions d'ordonnances,.
 </t>
         </is>
       </c>
